--- a/Resources/Склад.xlsx
+++ b/Resources/Склад.xlsx
@@ -61,8 +61,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -596,11 +597,7 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="18" fillId="0" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -611,6 +608,10 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -961,9 +962,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,49 +975,49 @@
     <col min="4" max="4" width="50.7109375" customWidth="1"/>
     <col min="5" max="5" width="121.140625" customWidth="1"/>
     <col min="6" max="6" width="40.5703125" customWidth="1"/>
-    <col min="7" max="7" width="41.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="41.5703125" style="5" customWidth="1"/>
     <col min="8" max="8" width="40.85546875" customWidth="1"/>
     <col min="9" max="9" width="41.140625" customWidth="1"/>
     <col min="10" max="10" width="57.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1034,9 +1035,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J4"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,49 +1048,49 @@
     <col min="4" max="4" width="50.7109375" customWidth="1"/>
     <col min="5" max="5" width="121.42578125" customWidth="1"/>
     <col min="6" max="6" width="40.7109375" customWidth="1"/>
-    <col min="7" max="7" width="40.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="40.28515625" style="5" customWidth="1"/>
     <col min="8" max="8" width="40.7109375" customWidth="1"/>
     <col min="9" max="9" width="41" customWidth="1"/>
     <col min="10" max="10" width="51.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Resources/Склад.xlsx
+++ b/Resources/Склад.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Аптека" sheetId="1" r:id="rId1"/>
+    <sheet name="Аптеки" sheetId="1" r:id="rId1"/>
     <sheet name="Склад" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Аптека!$A$4:$J$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Аптеки!$A$4:$J$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Склад!$A$4:$J$4</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
@@ -51,10 +51,10 @@
     <t>Сумма</t>
   </si>
   <si>
-    <t xml:space="preserve">Остатки в аптеках по ФП </t>
+    <t>Остатки в аптеки</t>
   </si>
   <si>
-    <t xml:space="preserve">Остатки склада по ФП </t>
+    <t>Остатки склада</t>
   </si>
 </sst>
 </file>
@@ -63,7 +63,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -606,12 +606,12 @@
     <xf numFmtId="4" fontId="18" fillId="0" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -962,34 +962,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" customWidth="1"/>
-    <col min="3" max="3" width="142" customWidth="1"/>
-    <col min="4" max="4" width="50.7109375" customWidth="1"/>
-    <col min="5" max="5" width="121.140625" customWidth="1"/>
-    <col min="6" max="6" width="40.5703125" customWidth="1"/>
-    <col min="7" max="7" width="41.5703125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="40.85546875" customWidth="1"/>
-    <col min="9" max="9" width="41.140625" customWidth="1"/>
-    <col min="10" max="10" width="57.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="62.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="48.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C2" s="4" t="s">
+    <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1008,7 +1009,7 @@
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -1023,9 +1024,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A4:J4"/>
-  <mergeCells count="1">
-    <mergeCell ref="C2:F2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1035,34 +1033,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J4"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.5703125" customWidth="1"/>
-    <col min="2" max="2" width="51.42578125" customWidth="1"/>
-    <col min="3" max="3" width="142" customWidth="1"/>
-    <col min="4" max="4" width="50.7109375" customWidth="1"/>
-    <col min="5" max="5" width="121.42578125" customWidth="1"/>
-    <col min="6" max="6" width="40.7109375" customWidth="1"/>
-    <col min="7" max="7" width="40.28515625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="40.7109375" customWidth="1"/>
-    <col min="9" max="9" width="41" customWidth="1"/>
-    <col min="10" max="10" width="51.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="62.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="48.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1081,7 +1079,7 @@
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -1096,9 +1094,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A4:J4"/>
-  <mergeCells count="1">
-    <mergeCell ref="C2:F2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
